--- a/formats/excel/Formats RUM ANO 18.xlsx
+++ b/formats/excel/Formats RUM ANO 18.xlsx
@@ -178,7 +178,7 @@
     <t xml:space="preserve">Code retour contrôle montant à facturer au titre du forfait journalier </t>
   </si>
   <si>
-    <t>CRMTTOT</t>
+    <t>CRMTFACTOT</t>
   </si>
   <si>
     <t>Code retour contrôle montant total du séjour remboursé par l'assurance maladie (i.e. hors prestations annexes )</t>
@@ -502,7 +502,7 @@
     <t>Montant à facturer au titre du forfait journalier</t>
   </si>
   <si>
-    <t>MTTOT</t>
+    <t>MTFACTOT</t>
   </si>
   <si>
     <t>Montant total du séjour remboursé par l'assurance maladie (i.e. hors prestations annexes)</t>
@@ -769,9 +769,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -797,13 +797,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -813,7 +806,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -821,21 +828,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -864,6 +856,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -872,8 +871,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -888,8 +894,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -903,30 +925,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -948,7 +948,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,7 +972,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,7 +1032,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,73 +1092,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1062,67 +1110,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1154,8 +1154,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1171,30 +1171,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1219,6 +1195,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1236,139 +1236,139 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1381,11 +1381,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1703,8 +1704,8 @@
   <sheetPr/>
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2289,7 +2290,7 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B25">
@@ -3561,7 +3562,7 @@
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" t="s">
+      <c r="A78" s="2" t="s">
         <v>162</v>
       </c>
       <c r="B78">

--- a/formats/excel/Formats RUM ANO 18.xlsx
+++ b/formats/excel/Formats RUM ANO 18.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Documents/Developpements/Github/formats_pmeasyr/formats/excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C081951-2CC4-BF44-B1E7-FA789DD79E04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24240" windowHeight="12855" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="12860" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="249">
   <si>
     <t>nom</t>
   </si>
@@ -25,9 +31,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>Libellé</t>
-  </si>
-  <si>
     <t>longueur</t>
   </si>
   <si>
@@ -748,9 +751,6 @@
     <t>Pays d’assurance social</t>
   </si>
   <si>
-    <t>Filler</t>
-  </si>
-  <si>
     <t>EMPNUM</t>
   </si>
   <si>
@@ -761,19 +761,19 @@
   </si>
   <si>
     <t>Zone chiffrée</t>
+  </si>
+  <si>
+    <t>FILLER</t>
+  </si>
+  <si>
+    <t>libelle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -788,346 +788,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1135,251 +805,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1388,58 +816,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
-    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
-    <cellStyle name="Title" xfId="40" builtinId="15"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
-    <cellStyle name="Comma" xfId="46" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1700,21 +1089,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1" customWidth="1"/>
-    <col min="4" max="4" width="62.24" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="62.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1725,31 +1113,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
       </c>
       <c r="B2">
         <f>E2+F2-F3</f>
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="E2" s="1">
         <v>8</v>
@@ -1761,19 +1149,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B11" si="0">E3+F3-F4</f>
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1">
         <v>8</v>
@@ -1785,19 +1173,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -1809,19 +1197,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1833,19 +1221,19 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1857,19 +1245,19 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1881,19 +1269,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -1905,19 +1293,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="1">
         <v>17</v>
@@ -1929,19 +1317,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="1">
         <v>20</v>
@@ -1953,19 +1341,19 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1">
         <v>17</v>
@@ -1977,19 +1365,19 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12">
         <f t="shared" ref="B12:B43" si="1">E12+F12-F13</f>
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="1">
         <v>9</v>
@@ -2001,19 +1389,19 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -2025,19 +1413,19 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -2049,19 +1437,19 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -2073,19 +1461,19 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -2097,19 +1485,19 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -2121,19 +1509,19 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -2145,19 +1533,19 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -2169,19 +1557,19 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -2193,19 +1581,19 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -2217,19 +1605,19 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -2241,19 +1629,19 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -2265,19 +1653,19 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -2289,19 +1677,19 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -2313,19 +1701,19 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -2337,19 +1725,19 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -2361,19 +1749,19 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -2385,19 +1773,19 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -2409,19 +1797,19 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -2433,19 +1821,19 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -2457,19 +1845,19 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -2481,19 +1869,19 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -2505,19 +1893,19 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -2529,19 +1917,19 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -2553,19 +1941,19 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -2577,19 +1965,19 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -2601,19 +1989,19 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -2625,19 +2013,19 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -2649,19 +2037,19 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -2673,19 +2061,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -2697,19 +2085,19 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
@@ -2721,19 +2109,19 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
@@ -2745,19 +2133,19 @@
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B44">
         <f t="shared" ref="B44:B75" si="2">E44+F44-F45</f>
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -2769,19 +2157,19 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -2793,19 +2181,19 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
@@ -2817,19 +2205,19 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
@@ -2841,19 +2229,19 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
@@ -2865,19 +2253,19 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B49">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -2889,19 +2277,19 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
@@ -2913,19 +2301,19 @@
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
@@ -2937,19 +2325,19 @@
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
@@ -2961,19 +2349,19 @@
         <v>126</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E53" s="1">
         <v>1</v>
@@ -2985,19 +2373,19 @@
         <v>127</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E54" s="1">
         <v>1</v>
@@ -3009,19 +2397,19 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E55" s="1">
         <v>1</v>
@@ -3033,19 +2421,19 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
@@ -3057,19 +2445,19 @@
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E57" s="1">
         <v>1</v>
@@ -3081,19 +2469,19 @@
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B58">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -3105,19 +2493,19 @@
         <v>132</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
@@ -3129,19 +2517,19 @@
         <v>133</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E60" s="1">
         <v>1</v>
@@ -3153,19 +2541,19 @@
         <v>134</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B61">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E61" s="1">
         <v>1</v>
@@ -3177,19 +2565,19 @@
         <v>135</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -3201,19 +2589,19 @@
         <v>136</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B63">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -3225,19 +2613,19 @@
         <v>137</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B64">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
@@ -3249,19 +2637,19 @@
         <v>138</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B65">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E65" s="1">
         <v>1</v>
@@ -3273,19 +2661,19 @@
         <v>139</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E66" s="1">
         <v>2</v>
@@ -3297,19 +2685,19 @@
         <v>141</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B67">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E67" s="1">
         <v>2</v>
@@ -3321,19 +2709,19 @@
         <v>143</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
@@ -3345,19 +2733,19 @@
         <v>144</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
@@ -3369,19 +2757,19 @@
         <v>145</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B70">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E70" s="1">
         <v>2</v>
@@ -3393,19 +2781,19 @@
         <v>147</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E71" s="1">
         <v>2</v>
@@ -3417,19 +2805,19 @@
         <v>149</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B72">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E72" s="1">
         <v>1</v>
@@ -3441,19 +2829,19 @@
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B73">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E73" s="1">
         <v>1</v>
@@ -3465,19 +2853,19 @@
         <v>151</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E74" s="1">
         <v>1</v>
@@ -3489,19 +2877,19 @@
         <v>152</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C75" t="s">
+        <v>154</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="E75" s="1">
         <v>4</v>
@@ -3513,19 +2901,19 @@
         <v>156</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B76">
         <f t="shared" ref="B76:B121" si="3">E76+F76-F77</f>
         <v>0</v>
       </c>
       <c r="C76" t="s">
+        <v>157</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="E76" s="1">
         <v>10</v>
@@ -3537,19 +2925,19 @@
         <v>166</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>159</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>157</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="B77">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C77" t="s">
-        <v>158</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="E77" s="1">
         <v>10</v>
@@ -3561,19 +2949,19 @@
         <v>176</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>157</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="B78">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C78" t="s">
-        <v>158</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="E78" s="1">
         <v>10</v>
@@ -3585,19 +2973,19 @@
         <v>186</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>163</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>157</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="B79">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C79" t="s">
-        <v>158</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="E79" s="1">
         <v>4</v>
@@ -3609,19 +2997,19 @@
         <v>190</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>165</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>157</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="B80">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C80" t="s">
-        <v>158</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="E80" s="1">
         <v>10</v>
@@ -3633,19 +3021,19 @@
         <v>200</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>167</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>157</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="B81">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C81" t="s">
-        <v>158</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="E81" s="1">
         <v>5</v>
@@ -3657,19 +3045,19 @@
         <v>205</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C82" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="B82">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C82" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="E82" s="1">
         <v>1</v>
@@ -3681,19 +3069,19 @@
         <v>206</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>171</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="B83">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C83" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="E83" s="1">
         <v>20</v>
@@ -3705,19 +3093,19 @@
         <v>226</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>173</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C84" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="B84">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C84" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="E84" s="1">
         <v>1</v>
@@ -3729,19 +3117,19 @@
         <v>227</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>175</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="B85">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C85" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="E85" s="1">
         <v>1</v>
@@ -3753,19 +3141,19 @@
         <v>228</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>177</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="B86">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C86" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="E86" s="1">
         <v>8</v>
@@ -3777,19 +3165,19 @@
         <v>236</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>179</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C87" t="s">
+        <v>157</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="B87">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C87" t="s">
-        <v>158</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="E87" s="1">
         <v>10</v>
@@ -3801,19 +3189,19 @@
         <v>246</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>181</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C88" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="B88">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C88" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="E88" s="1">
         <v>8</v>
@@ -3825,19 +3213,19 @@
         <v>254</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>183</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C89" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="B89">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C89" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="E89" s="1">
         <v>1</v>
@@ -3849,19 +3237,19 @@
         <v>255</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>185</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C90" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="B90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C90" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="E90" s="1">
         <v>1</v>
@@ -3873,19 +3261,19 @@
         <v>256</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>187</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="B91">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C91" t="s">
-        <v>8</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="E91" s="1">
         <v>9</v>
@@ -3897,19 +3285,19 @@
         <v>265</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>189</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="B92">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C92" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="E92" s="1">
         <v>1</v>
@@ -3921,19 +3309,19 @@
         <v>266</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>191</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C93" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="B93">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C93" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="E93" s="1">
         <v>3</v>
@@ -3945,19 +3333,19 @@
         <v>269</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>193</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C94" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="B94">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C94" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="E94" s="1">
         <v>3</v>
@@ -3969,19 +3357,19 @@
         <v>272</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>195</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C95" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="B95">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C95" t="s">
-        <v>8</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="E95" s="1">
         <v>4</v>
@@ -3993,19 +3381,19 @@
         <v>276</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>197</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="B96">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C96" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="E96" s="1">
         <v>1</v>
@@ -4017,19 +3405,19 @@
         <v>277</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>199</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C97" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="B97">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C97" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="E97" s="1">
         <v>9</v>
@@ -4041,19 +3429,19 @@
         <v>286</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>201</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="B98">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C98" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="E98" s="1">
         <v>10</v>
@@ -4065,19 +3453,19 @@
         <v>296</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>203</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C99" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="B99">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C99" t="s">
-        <v>8</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="E99" s="1">
         <v>1</v>
@@ -4089,19 +3477,19 @@
         <v>297</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>205</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="B100">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C100" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="E100" s="1">
         <v>8</v>
@@ -4113,19 +3501,19 @@
         <v>305</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>207</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C101" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="B101">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C101" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="E101" s="1">
         <v>8</v>
@@ -4137,19 +3525,19 @@
         <v>313</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>209</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C102" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="B102">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C102" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="E102" s="1">
         <v>3</v>
@@ -4161,19 +3549,19 @@
         <v>316</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>211</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C103" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="B103">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C103" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="E103" s="1">
         <v>3</v>
@@ -4185,19 +3573,19 @@
         <v>319</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>213</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C104" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="B104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C104" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E104" s="1">
         <v>1</v>
@@ -4209,19 +3597,19 @@
         <v>320</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>215</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C105" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="B105">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C105" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="E105" s="1">
         <v>8</v>
@@ -4233,19 +3621,19 @@
         <v>328</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>217</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C106" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="B106">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C106" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="E106" s="1">
         <v>8</v>
@@ -4257,19 +3645,19 @@
         <v>336</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>219</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C107" t="s">
+        <v>157</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="B107">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C107" t="s">
-        <v>158</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="E107" s="1">
         <v>8</v>
@@ -4281,19 +3669,19 @@
         <v>344</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>221</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C108" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="B108">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C108" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="E108" s="1">
         <v>1</v>
@@ -4305,19 +3693,19 @@
         <v>345</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>223</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C109" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="B109">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C109" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="E109" s="1">
         <v>8</v>
@@ -4329,19 +3717,19 @@
         <v>353</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>225</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C110" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="B110">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C110" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="E110" s="1">
         <v>8</v>
@@ -4353,19 +3741,19 @@
         <v>361</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>227</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C111" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="B111">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C111" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="E111" s="1">
         <v>8</v>
@@ -4377,19 +3765,19 @@
         <v>369</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>229</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C112" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="B112">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C112" t="s">
-        <v>8</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="E112" s="1">
         <v>8</v>
@@ -4401,19 +3789,19 @@
         <v>377</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>231</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C113" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="B113">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C113" t="s">
-        <v>8</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="E113" s="1">
         <v>8</v>
@@ -4425,19 +3813,19 @@
         <v>385</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>233</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C114" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="B114">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C114" t="s">
-        <v>8</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="E114" s="1">
         <v>8</v>
@@ -4449,19 +3837,19 @@
         <v>393</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>235</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C115" t="s">
+        <v>7</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="B115">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C115" t="s">
-        <v>8</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="E115" s="1">
         <v>1</v>
@@ -4473,19 +3861,19 @@
         <v>394</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>237</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C116" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="B116">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C116" t="s">
-        <v>8</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="E116" s="1">
         <v>1</v>
@@ -4497,19 +3885,19 @@
         <v>395</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>239</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C117" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="B117">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C117" t="s">
-        <v>8</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="E117" s="1">
         <v>1</v>
@@ -4521,19 +3909,19 @@
         <v>396</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>241</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C118" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="B118">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C118" t="s">
-        <v>8</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="E118" s="1">
         <v>3</v>
@@ -4545,20 +3933,18 @@
         <v>399</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B119">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>244</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D119" s="1"/>
       <c r="E119" s="1">
         <v>50</v>
       </c>
@@ -4569,19 +3955,19 @@
         <v>449</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E120" s="1">
         <v>32</v>
@@ -4593,19 +3979,19 @@
         <v>481</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B121">
         <f t="shared" si="3"/>
         <v>826</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E121" s="1">
         <v>344</v>
@@ -4618,8 +4004,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>